--- a/Bachelor Rapport/LaTeX/ArkitekturDesign/Design/Eksportering/GUIUdkast.xlsx
+++ b/Bachelor Rapport/LaTeX/ArkitekturDesign/Design/Eksportering/GUIUdkast.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_s_k\Desktop\Bachelor-TilsynRamboell-\Bachelor Rapport\LaTeX\ArkitekturDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_s_k\Desktop\Bachelor-TilsynRamboell-\Bachelor Rapport\LaTeX\ArkitekturDesign\Design\Eksportering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -915,6 +915,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>